--- a/forecast_summary_B089FWWN62.xlsx
+++ b/forecast_summary_B089FWWN62.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>20.23080832753805</v>
       </c>
       <c r="D2" t="n">
-        <v>75.06018562299691</v>
+        <v>68.14280722558993</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>11.25162919433277</v>
       </c>
       <c r="D3" t="n">
-        <v>62.17362217735166</v>
+        <v>63.74677229109572</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>5.920236300924331</v>
       </c>
       <c r="D4" t="n">
-        <v>57.44961411798297</v>
+        <v>60.70492058791132</v>
       </c>
       <c r="E4" t="n">
         <v>56</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>1.593474588692974</v>
       </c>
       <c r="D5" t="n">
-        <v>54.52728953525175</v>
+        <v>52.60034566748023</v>
       </c>
       <c r="E5" t="n">
         <v>46</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-1.95880682772748</v>
       </c>
       <c r="D6" t="n">
-        <v>50.39613419567162</v>
+        <v>50.63084456180948</v>
       </c>
       <c r="E6" t="n">
         <v>46</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>-4.374083299316981</v>
       </c>
       <c r="D7" t="n">
-        <v>48.72570094948112</v>
+        <v>47.29162399850238</v>
       </c>
       <c r="E7" t="n">
         <v>47</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-7.06209778020198</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8661994771719</v>
+        <v>44.00911254341843</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>-11.88214065605072</v>
       </c>
       <c r="D9" t="n">
-        <v>39.96231001303612</v>
+        <v>37.49203890016593</v>
       </c>
       <c r="E9" t="n">
         <v>45</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>-18.35246730856217</v>
       </c>
       <c r="D10" t="n">
-        <v>34.98104689929144</v>
+        <v>31.94267700965478</v>
       </c>
       <c r="E10" t="n">
         <v>45</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-23.58906886490331</v>
       </c>
       <c r="D11" t="n">
-        <v>28.42729448833456</v>
+        <v>25.666719103671</v>
       </c>
       <c r="E11" t="n">
         <v>43</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-24.90249590348402</v>
       </c>
       <c r="D12" t="n">
-        <v>26.95985033631787</v>
+        <v>25.16874576223997</v>
       </c>
       <c r="E12" t="n">
         <v>44</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-21.75010152273511</v>
       </c>
       <c r="D13" t="n">
-        <v>28.30571466297536</v>
+        <v>30.76454608323282</v>
       </c>
       <c r="E13" t="n">
         <v>44</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>-15.66671777609996</v>
       </c>
       <c r="D14" t="n">
-        <v>33.69776680467772</v>
+        <v>38.38595522778174</v>
       </c>
       <c r="E14" t="n">
         <v>42</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
         <v>-9.535204500211634</v>
       </c>
       <c r="D15" t="n">
-        <v>39.99098098625981</v>
+        <v>43.80705398102523</v>
       </c>
       <c r="E15" t="n">
         <v>41</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>-6.71866110754328</v>
       </c>
       <c r="D16" t="n">
-        <v>43.70922473904172</v>
+        <v>45.97258078559697</v>
       </c>
       <c r="E16" t="n">
         <v>42</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
         <v>-9.021345409163189</v>
       </c>
       <c r="D17" t="n">
-        <v>46.63681482448379</v>
+        <v>42.77225402249825</v>
       </c>
       <c r="E17" t="n">
         <v>41</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>-14.52523206285708</v>
       </c>
       <c r="D18" t="n">
-        <v>34.58880993429743</v>
+        <v>40.82189423702822</v>
       </c>
       <c r="E18" t="n">
         <v>38</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>-19.01828427580742</v>
       </c>
       <c r="D19" t="n">
-        <v>32.74060626029586</v>
+        <v>34.91395985441212</v>
       </c>
       <c r="E19" t="n">
         <v>36</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-21.48480922898365</v>
       </c>
       <c r="D20" t="n">
-        <v>30.5000629553287</v>
+        <v>31.88916446490565</v>
       </c>
       <c r="E20" t="n">
         <v>39</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-27.13987782190456</v>
       </c>
       <c r="D21" t="n">
-        <v>27.40452109615622</v>
+        <v>23.28364982361495</v>
       </c>
       <c r="E21" t="n">
         <v>37</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550I AORUS PRO AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
     </row>
